--- a/stores_master.xlsx
+++ b/stores_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harish.B\Desktop\METRO\VOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{219B9A7F-84C5-4A88-ABDF-B47342965B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8883C-689F-4A2A-9F3F-C6D4033AEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{626F2E84-4556-4659-A6B6-18DA584F32C6}"/>
   </bookViews>
@@ -4353,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7A9B29-1480-4869-85BB-D2BD8256AC98}">
   <dimension ref="A1:H966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="F355" sqref="F355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
